--- a/1. laporan/Hasil penelitian BOPTN.xlsx
+++ b/1. laporan/Hasil penelitian BOPTN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunox\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\2024_BOPTN_Hopsot\1. laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2099FC95-55A3-4A8E-A6D8-CD6DC2E1ABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E1F5B1-DD2A-4351-9E2F-E5B876232B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Experiment</t>
   </si>
@@ -55,6 +55,36 @@
   </si>
   <si>
     <t>SBi-GRU-XGBoost</t>
+  </si>
+  <si>
+    <t>0.6501</t>
+  </si>
+  <si>
+    <t>0.0334</t>
+  </si>
+  <si>
+    <t>0.0972</t>
+  </si>
+  <si>
+    <t>0.0577</t>
+  </si>
+  <si>
+    <t>0.9999</t>
+  </si>
+  <si>
+    <t>0.0015</t>
+  </si>
+  <si>
+    <t>0.0019</t>
+  </si>
+  <si>
+    <t>0.0016</t>
+  </si>
+  <si>
+    <t>titik panas</t>
+  </si>
+  <si>
+    <t>titik panas + enso</t>
   </si>
 </sst>
 </file>
@@ -62,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -128,55 +158,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,222 +528,270 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="11" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="11" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.64880000000000004</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="D6" s="10">
+        <f>SQRT(0.0064)</f>
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="10">
+        <f>4.6531/100</f>
+        <v>4.6531000000000003E-2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="10">
+        <v>0.81530000000000002</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I6" s="10">
+        <f>SQRT(0.0053)</f>
+        <v>7.2801098892805186E-2</v>
+      </c>
+      <c r="J6" s="10">
+        <f>3.8508/100</f>
+        <v>3.8508000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="15">
-        <v>0.64880000000000004</v>
-      </c>
-      <c r="C5" s="15">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>9.5299999999999996E-2</v>
-      </c>
-      <c r="E5" s="14">
-        <f>0.0568*100</f>
-        <v>5.6800000000000006</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="15">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1.4E-3</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1.8E-3</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1.5E-3</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>4</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="C12" s="10">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D12" s="10">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E12" s="10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1. laporan/Hasil penelitian BOPTN.xlsx
+++ b/1. laporan/Hasil penelitian BOPTN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\2024_BOPTN_Hopsot\1. laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E1F5B1-DD2A-4351-9E2F-E5B876232B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD43E2DF-4167-403B-957F-D976BC109590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
   </bookViews>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -179,9 +179,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -528,7 +525,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,41 +535,41 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -600,19 +597,19 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.64880000000000004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>5.6800000000000003E-2</v>
       </c>
       <c r="F5" s="6"/>
@@ -630,78 +627,78 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>0.77569999999999995</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <f>SQRT(0.0064)</f>
         <v>0.08</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f>4.6531/100</f>
         <v>4.6531000000000003E-2</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>0.81530000000000002</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <f>SQRT(0.0053)</f>
         <v>7.2801098892805186E-2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f>3.8508/100</f>
         <v>3.8508000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
@@ -729,19 +726,19 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>1.4E-3</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>1.8E-3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>1.5E-3</v>
       </c>
       <c r="F11" s="6"/>
@@ -759,26 +756,34 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>1</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I12" s="9">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J12" s="9">
+        <v>6.9999999999999999E-4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/1. laporan/Hasil penelitian BOPTN.xlsx
+++ b/1. laporan/Hasil penelitian BOPTN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\2024_BOPTN_Hopsot\1. laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD43E2DF-4167-403B-957F-D976BC109590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A711E0-58E6-4D21-80A9-B7CE1685A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,16 +787,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1. laporan/Hasil penelitian BOPTN.xlsx
+++ b/1. laporan/Hasil penelitian BOPTN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\2024_BOPTN_Hopsot\1. laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A711E0-58E6-4D21-80A9-B7CE1685A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FADD763-F554-433C-A65A-BB1C90583B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
   </bookViews>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D75234-9105-4A91-B6E5-84840FBBE119}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,16 +787,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
